--- a/IncomeReport.xlsx
+++ b/IncomeReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Income Report</t>
   </si>
@@ -20,13 +20,13 @@
     <t>Report ID</t>
   </si>
   <si>
-    <t>INRP0009</t>
+    <t>INRP0002</t>
   </si>
   <si>
     <t>Order Date</t>
   </si>
   <si>
-    <t>17-05-2022</t>
+    <t>16-05-2022</t>
   </si>
   <si>
     <t>Create By</t>
@@ -50,7 +50,7 @@
     <t>Supplier</t>
   </si>
   <si>
-    <t>Foody Compant</t>
+    <t>Tired</t>
   </si>
   <si>
     <t>Number</t>
@@ -68,76 +68,22 @@
     <t>Receive Quantity</t>
   </si>
   <si>
-    <t>ING0005</t>
-  </si>
-  <si>
-    <t>Trà lài khô</t>
-  </si>
-  <si>
     <t>ING0006</t>
   </si>
   <si>
     <t>Trà đào khô</t>
   </si>
   <si>
-    <t>ING0007</t>
-  </si>
-  <si>
-    <t>Trà hương vải khô</t>
-  </si>
-  <si>
-    <t>ING0008</t>
-  </si>
-  <si>
-    <t>Trà xanh matcha khô</t>
-  </si>
-  <si>
-    <t>ING0010</t>
-  </si>
-  <si>
-    <t>Bột vitamin C</t>
-  </si>
-  <si>
-    <t>ING0011</t>
-  </si>
-  <si>
-    <t>Giấm</t>
-  </si>
-  <si>
-    <t>ING0014</t>
-  </si>
-  <si>
-    <t>Trứng gà</t>
-  </si>
-  <si>
-    <t>ING0022</t>
-  </si>
-  <si>
-    <t>Cá ngừ đống hộp</t>
-  </si>
-  <si>
-    <t>ING0023</t>
-  </si>
-  <si>
-    <t>Gà xé chế biến</t>
-  </si>
-  <si>
-    <t>ING0024</t>
-  </si>
-  <si>
-    <t>Ớt</t>
-  </si>
-  <si>
-    <t>ING0025</t>
-  </si>
-  <si>
-    <t>Bột ngọt</t>
-  </si>
-  <si>
-    <t>ING0026</t>
-  </si>
-  <si>
-    <t>Bột cacao</t>
+    <t>ING0009</t>
+  </si>
+  <si>
+    <t>Bột mì</t>
+  </si>
+  <si>
+    <t>ING0012</t>
+  </si>
+  <si>
+    <t>Muối</t>
   </si>
 </sst>
 </file>
@@ -203,15 +149,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="18.90234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.99609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.83203125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.25390625" customWidth="true" bestFit="true"/>
   </cols>
@@ -297,10 +243,10 @@
         <v>19</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -317,7 +263,7 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -331,163 +277,10 @@
         <v>23</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
